--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N2">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q2">
-        <v>3.021413592627555</v>
+        <v>0.3020938813922222</v>
       </c>
       <c r="R2">
-        <v>27.192722333648</v>
+        <v>2.71884493253</v>
       </c>
       <c r="S2">
-        <v>0.001274641069008467</v>
+        <v>0.0001260579206085779</v>
       </c>
       <c r="T2">
-        <v>0.001274641069008467</v>
+        <v>0.000126057920608578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q3">
-        <v>53.61022479496689</v>
+        <v>13.57747151749389</v>
       </c>
       <c r="R3">
-        <v>482.4920231547021</v>
+        <v>122.197243657445</v>
       </c>
       <c r="S3">
-        <v>0.02261649792308464</v>
+        <v>0.005665615664672441</v>
       </c>
       <c r="T3">
-        <v>0.02261649792308465</v>
+        <v>0.005665615664672443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N4">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q4">
-        <v>25.42818629822689</v>
+        <v>6.824710685808889</v>
       </c>
       <c r="R4">
-        <v>228.853676684042</v>
+        <v>61.42239617228</v>
       </c>
       <c r="S4">
-        <v>0.01072736637089516</v>
+        <v>0.002847819472024434</v>
       </c>
       <c r="T4">
-        <v>0.01072736637089516</v>
+        <v>0.002847819472024435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N5">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q5">
-        <v>71.64001379344532</v>
+        <v>28.28239211558533</v>
       </c>
       <c r="R5">
-        <v>644.760124141008</v>
+        <v>254.541529040268</v>
       </c>
       <c r="S5">
-        <v>0.03022270899564155</v>
+        <v>0.01180169397505354</v>
       </c>
       <c r="T5">
-        <v>0.03022270899564155</v>
+        <v>0.01180169397505354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>248.871689</v>
       </c>
       <c r="O6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q6">
         <v>1271.139195624371</v>
@@ -818,10 +818,10 @@
         <v>11440.25276061934</v>
       </c>
       <c r="S6">
-        <v>0.5362543635610554</v>
+        <v>0.5304217452733689</v>
       </c>
       <c r="T6">
-        <v>0.5362543635610554</v>
+        <v>0.530421745273369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N7">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q7">
-        <v>602.9216329708313</v>
+        <v>638.9376137044854</v>
       </c>
       <c r="R7">
-        <v>5426.294696737482</v>
+        <v>5750.438523340369</v>
       </c>
       <c r="S7">
-        <v>0.2543540138475189</v>
+        <v>0.2666162803794805</v>
       </c>
       <c r="T7">
-        <v>0.2543540138475189</v>
+        <v>0.2666162803794806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N8">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O8">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P8">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q8">
-        <v>12.61598568958933</v>
+        <v>6.382135237444889</v>
       </c>
       <c r="R8">
-        <v>113.543871206304</v>
+        <v>57.439217137004</v>
       </c>
       <c r="S8">
-        <v>0.005322294678627246</v>
+        <v>0.002663141316756735</v>
       </c>
       <c r="T8">
-        <v>0.005322294678627246</v>
+        <v>0.002663141316756735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>248.871689</v>
       </c>
       <c r="O9">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P9">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q9">
-        <v>223.8507930457773</v>
+        <v>286.8421532003696</v>
       </c>
       <c r="R9">
-        <v>2014.657137411996</v>
+        <v>2581.579378803326</v>
       </c>
       <c r="S9">
-        <v>0.09443573526063592</v>
+        <v>0.1196936700891973</v>
       </c>
       <c r="T9">
-        <v>0.09443573526063595</v>
+        <v>0.1196936700891973</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N10">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O10">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P10">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q10">
-        <v>106.1760082212573</v>
+        <v>144.1810948058116</v>
       </c>
       <c r="R10">
-        <v>955.584073991316</v>
+        <v>1297.629853252304</v>
       </c>
       <c r="S10">
-        <v>0.04479237829353272</v>
+        <v>0.06016397590883742</v>
       </c>
       <c r="T10">
-        <v>0.04479237829353272</v>
+        <v>0.06016397590883742</v>
       </c>
     </row>
   </sheetData>
